--- a/userdatadb.xlsx
+++ b/userdatadb.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,9 +764,165 @@
         <v>44658.82539805555</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C15" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D15" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E15" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F15" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44658.895740555556</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C16" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D16" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E16" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F16" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44658.89619234954</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C17" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D17" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E17" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F17" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44658.89681013889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C18" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D18" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E18" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G18" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44658.90032695602</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C19" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D19" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E19" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G19" t="str">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44658.90251565972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Ayyaz Butt</v>
+      </c>
+      <c r="C20" t="str">
+        <v>188 attock city</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Sikh</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1215500</v>
+      </c>
+      <c r="F20" t="str">
+        <v>codementee@outlook.com</v>
+      </c>
+      <c r="G20" t="str">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44658.90505260417</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/userdatadb.xlsx
+++ b/userdatadb.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,9 +920,61 @@
         <v>44658.90505260417</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C21" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D21" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E21" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F21" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44659.225580046295</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Sulman</v>
+      </c>
+      <c r="C22" t="str">
+        <v>attock</v>
+      </c>
+      <c r="D22" t="str">
+        <v>sikh</v>
+      </c>
+      <c r="E22" t="str">
+        <v>+02311111</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ali@gmail.com</v>
+      </c>
+      <c r="G22" t="str">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44659.22604538195</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/userdatadb.xlsx
+++ b/userdatadb.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,550 +431,995 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ayyaz</v>
       </c>
       <c r="C2" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D2" t="str">
-        <v>sikh</v>
+        <v>Sikh</v>
       </c>
       <c r="E2" t="str">
-        <v>+02311111</v>
+        <v>8188424532</v>
       </c>
       <c r="F2" t="str">
-        <v>ali@gmail.com</v>
+        <v>yousafbutt1968@gmail.com</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>44658.805456458336</v>
+        <v>44658.62153347222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
-        <v>ali</v>
+        <v>Faizan Ahmad Nadeem</v>
       </c>
       <c r="C3" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D3" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E3" t="str">
-        <v>+02311111</v>
+        <v>2332123</v>
       </c>
       <c r="F3" t="str">
-        <v>ali@gmail.com</v>
+        <v>faizan@gmail.com</v>
       </c>
       <c r="G3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>44658.81590810185</v>
+        <v>44658.62225571759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="str">
-        <v>Faizan</v>
+        <v>Ayyaz Ahmed Yousaf</v>
       </c>
       <c r="C4" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D4" t="str">
-        <v>sikh</v>
+        <v>Dalit</v>
       </c>
       <c r="E4" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F4" t="str">
-        <v>ali@gmail.com</v>
+        <v>codementee@outlook.com</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>44658.81602921296</v>
+        <v>44658.68040917824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="str">
-        <v>Nadeem</v>
+        <v>Ayyaz Ahmed Yousaf</v>
       </c>
       <c r="C5" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D5" t="str">
-        <v>sikh</v>
+        <v>Dalit</v>
       </c>
       <c r="E5" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F5" t="str">
-        <v>ali@gmail.com</v>
+        <v>codementee@outlook.com</v>
       </c>
       <c r="G5" t="str">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>44658.816096504626</v>
+        <v>44658.68043900463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="str">
-        <v>Alia</v>
+        <v>Ayyaz Ahmed Yousaf</v>
       </c>
       <c r="C6" t="str">
-        <v>attock</v>
+        <v>188 attock city</v>
       </c>
       <c r="D6" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E6" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F6" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="G6" t="str">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>44658.82118400463</v>
+        <v>44658.68328394676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="str">
-        <v>Zeeshan</v>
+        <v>Ayyaz Butt</v>
       </c>
       <c r="C7" t="str">
-        <v>attock</v>
+        <v>asdf</v>
       </c>
       <c r="D7" t="str">
-        <v>sikh</v>
+        <v>Hindu</v>
       </c>
       <c r="E7" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F7" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="G7" t="str">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>44658.821952743056</v>
+        <v>44658.68356646991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="str">
-        <v>Zeeshan</v>
+        <v>ayyaz</v>
       </c>
       <c r="C8" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Islamabad</v>
       </c>
       <c r="D8" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E8" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F8" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="G8" t="str">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>44658.822472025466</v>
+        <v>44658.6930571412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="str">
-        <v>Mufleh</v>
+        <v>Ayyaz Ahmed Yousaf</v>
       </c>
       <c r="C9" t="str">
-        <v>attock</v>
+        <v>188 attock city</v>
       </c>
       <c r="D9" t="str">
-        <v>sikh</v>
+        <v>Hindu</v>
       </c>
       <c r="E9" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F9" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyazahmad009@gmail.com</v>
       </c>
       <c r="G9" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>44658.82273693287</v>
+        <v>44658.69404930556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="str">
-        <v>Satwat</v>
+        <v>Ayyaz Butt</v>
       </c>
       <c r="C10" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Islamabad</v>
       </c>
       <c r="D10" t="str">
-        <v>sikh</v>
+        <v>Hindu</v>
       </c>
       <c r="E10" t="str">
-        <v>+02311111</v>
+        <v>1215500</v>
       </c>
       <c r="F10" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyazahmad009@gmail.com</v>
       </c>
       <c r="G10" t="str">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>44658.82282519676</v>
+        <v>44658.69589739583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="str">
-        <v>talha</v>
+        <v>ayyaz</v>
       </c>
       <c r="C11" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D11" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E11" t="str">
-        <v>+02311111</v>
+        <v>5028186821</v>
       </c>
       <c r="F11" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="G11" t="str">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>44658.82324893519</v>
+        <v>44658.720725983796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="str">
-        <v>Sohaib</v>
+        <v>sohaib</v>
       </c>
       <c r="C12" t="str">
-        <v>attock</v>
+        <v>house# 165 Choi East</v>
       </c>
       <c r="D12" t="str">
-        <v>sikh</v>
+        <v>Christian</v>
       </c>
       <c r="E12" t="str">
-        <v>+02311111</v>
+        <v>8188424532</v>
       </c>
       <c r="F12" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyazahmad009@gmail.com</v>
       </c>
       <c r="G12" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>44658.82336980324</v>
+        <v>44658.72135452546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="str">
-        <v>Shahid</v>
+        <v>Talha</v>
       </c>
       <c r="C13" t="str">
-        <v>attock</v>
+        <v>Germany</v>
       </c>
       <c r="D13" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E13" t="str">
-        <v>+02311111</v>
+        <v>323232</v>
       </c>
       <c r="F13" t="str">
-        <v>ali@gmail.com</v>
+        <v>talha@gmail.com</v>
       </c>
       <c r="G13" t="str">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>44658.825185277776</v>
+        <v>44658.75616027778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="str">
-        <v>Sulman</v>
+        <v>sidra</v>
       </c>
       <c r="C14" t="str">
-        <v>attock</v>
+        <v>house</v>
       </c>
       <c r="D14" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E14" t="str">
-        <v>+02311111</v>
+        <v>2323232</v>
       </c>
       <c r="F14" t="str">
-        <v>ali@gmail.com</v>
+        <v>yousafbutt1968@gmail.com</v>
       </c>
       <c r="G14" t="str">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>44658.82539805555</v>
+        <v>44658.756600162036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
-        <v>Sulman</v>
+        <v>malik</v>
       </c>
       <c r="C15" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D15" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E15" t="str">
-        <v>+02311111</v>
+        <v>23232</v>
       </c>
       <c r="F15" t="str">
-        <v>ali@gmail.com</v>
+        <v>malik@gmail.com</v>
       </c>
       <c r="G15" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>44658.895740555556</v>
+        <v>44658.76809104167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="str">
-        <v>Sulman</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="C16" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D16" t="str">
-        <v>sikh</v>
+        <v>Sikh</v>
       </c>
       <c r="E16" t="str">
-        <v>+02311111</v>
+        <v>3213232</v>
       </c>
       <c r="F16" t="str">
-        <v>ali@gmail.com</v>
+        <v>yousafbutt1968@gmail.com</v>
       </c>
       <c r="G16" t="str">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>44658.89619234954</v>
+        <v>44659.01954422454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
-        <v>Sulman</v>
+        <v>BIlal Ahmed</v>
       </c>
       <c r="C17" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D17" t="str">
-        <v>sikh</v>
+        <v>Sikh</v>
       </c>
       <c r="E17" t="str">
-        <v>+02311111</v>
+        <v>332323</v>
       </c>
       <c r="F17" t="str">
-        <v>ali@gmail.com</v>
+        <v>bilal@gmail.com</v>
       </c>
       <c r="G17" t="str">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>44658.89681013889</v>
+        <v>44659.02148940972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="str">
-        <v>Sulman</v>
+        <v>Sohaib</v>
       </c>
       <c r="C18" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D18" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E18" t="str">
-        <v>+02311111</v>
+        <v>3420898</v>
       </c>
       <c r="F18" t="str">
-        <v>ali@gmail.com</v>
+        <v>sohaib@gmail.com</v>
       </c>
       <c r="G18" t="str">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>44658.90032695602</v>
+        <v>44659.02316332176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
-        <v>Sulman</v>
+        <v>Sohaib</v>
       </c>
       <c r="C19" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D19" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E19" t="str">
-        <v>+02311111</v>
+        <v>321323</v>
       </c>
       <c r="F19" t="str">
-        <v>ali@gmail.com</v>
+        <v>sohaib@gmail.com</v>
       </c>
       <c r="G19" t="str">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>44658.90251565972</v>
+        <v>44659.02515518518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
-        <v>Ayyaz Butt</v>
+        <v>Uasma</v>
       </c>
       <c r="C20" t="str">
-        <v>188 attock city</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D20" t="str">
-        <v>Sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E20" t="str">
-        <v>1215500</v>
+        <v>+923431215500</v>
       </c>
       <c r="F20" t="str">
-        <v>codementee@outlook.com</v>
+        <v>usama@gmail.com</v>
       </c>
       <c r="G20" t="str">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>44658.90505260417</v>
+        <v>44659.044064594906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="str">
-        <v>Sulman</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="C21" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D21" t="str">
-        <v>sikh</v>
+        <v>Muslim</v>
       </c>
       <c r="E21" t="str">
-        <v>+02311111</v>
+        <v>+923431215500</v>
       </c>
       <c r="F21" t="str">
-        <v>ali@gmail.com</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="G21" t="str">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>44659.225580046295</v>
+        <v>44659.05357131945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="str">
-        <v>Sulman</v>
+        <v>ayyaz_butt@outlook.com</v>
       </c>
       <c r="C22" t="str">
-        <v>attock</v>
+        <v>House no 165 Choi East Attock</v>
       </c>
       <c r="D22" t="str">
-        <v>sikh</v>
+        <v>Hindu</v>
       </c>
       <c r="E22" t="str">
-        <v>+02311111</v>
+        <v>+923431215500</v>
       </c>
       <c r="F22" t="str">
-        <v>ali@gmail.com</v>
+        <v>yousafbutt1968@gmail.com</v>
       </c>
       <c r="G22" t="str">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>44659.22604538195</v>
+        <v>44659.05608730324</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Hindu</v>
+      </c>
+      <c r="E23" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F23" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44659.056274375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E24" t="str">
+        <v>03431215500</v>
+      </c>
+      <c r="F24" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G24" t="str">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44659.05690505787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Hindu</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0343121</v>
+      </c>
+      <c r="F25" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G25" t="str">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44659.058175405095</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>house# 165 Choi East</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E26" t="str">
+        <v>+9232</v>
+      </c>
+      <c r="F26" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G26" t="str">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44659.05935840278</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E27" t="str">
+        <v>+9212</v>
+      </c>
+      <c r="F27" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Ayyaz Butt</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44659.05965618056</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E28" t="str">
+        <v>+9231</v>
+      </c>
+      <c r="F28" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G28" t="str">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44659.06005291667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>house# 165 Choi East</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Hindu</v>
+      </c>
+      <c r="E29" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F29" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44659.06178121528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Sikh</v>
+      </c>
+      <c r="E30" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F30" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G30" t="str">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44659.09842414352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="str">
+        <v xml:space="preserve">Shahbaz </v>
+      </c>
+      <c r="C31" t="str">
+        <v>Sector f4 chicago</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E31" t="str">
+        <v>+923005600789</v>
+      </c>
+      <c r="F31" t="str">
+        <v>daniyoo@gmail.com</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Sheef</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44659.10001952546</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E32" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F32" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44659.10134630787</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C33" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Hindu</v>
+      </c>
+      <c r="E33" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F33" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44660.55708190972</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Gurpatwant Pannun</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Astoria Blvd</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Sikh</v>
+      </c>
+      <c r="E34" t="str">
+        <v>+19177892914</v>
+      </c>
+      <c r="F34" t="str">
+        <v>gurpatwant.pannun@gmail.com</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44660.56208135417</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="str">
+        <v xml:space="preserve">Faizan Ahmed </v>
+      </c>
+      <c r="C35" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Muslim</v>
+      </c>
+      <c r="E35" t="str">
+        <v>03431215500</v>
+      </c>
+      <c r="F35" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44660.690443831016</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C36" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Hindu</v>
+      </c>
+      <c r="E36" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F36" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G36" t="str">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44660.69344905092</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="str">
+        <v>ayyaz_butt@outlook.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Sikh</v>
+      </c>
+      <c r="E37" t="str">
+        <v>+923431215500</v>
+      </c>
+      <c r="F37" t="str">
+        <v>yousafbutt1968@gmail.com</v>
+      </c>
+      <c r="G37" t="str">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44660.69980780093</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="str">
+        <v xml:space="preserve">Sheikh </v>
+      </c>
+      <c r="C38" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Dalit</v>
+      </c>
+      <c r="E38" t="str">
+        <v>03431215500</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ayyazahmad009@gmail.com</v>
+      </c>
+      <c r="G38" t="str">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44660.70002600695</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Shahbaz</v>
+      </c>
+      <c r="C39" t="str">
+        <v>600 N. San Fernando Blvd</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>8188424532</v>
+      </c>
+      <c r="F39" t="str">
+        <v>shahbaz@gmail.com</v>
+      </c>
+      <c r="G39" t="str">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44660.748416689814</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H39"/>
   </ignoredErrors>
 </worksheet>
 </file>